--- a/InputData/trans/EoFoNVFE/Effect of Feebate on New Veh Fuel Econ.xlsx
+++ b/InputData/trans/EoFoNVFE/Effect of Feebate on New Veh Fuel Econ.xlsx
@@ -1,22 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10411"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-1.5.0-us-wipL\InputData\trans\EoFoNVFE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/trans/eofonvfe/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E346769-A6D9-4B4A-A0C2-36DC85B3BB35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="45" windowWidth="25875" windowHeight="11310"/>
+    <workbookView xWindow="360" yWindow="460" windowWidth="25880" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
     <sheet name="EoFoNVFE" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -146,7 +158,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -274,7 +286,7 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -302,16 +314,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="8">
-    <cellStyle name="Body: normal cell" xfId="5"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="3"/>
-    <cellStyle name="Footnotes: top row" xfId="7"/>
-    <cellStyle name="Header: bottom row" xfId="4"/>
+    <cellStyle name="Body: normal cell" xfId="5" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="3" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="7" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Header: bottom row" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Parent row" xfId="6"/>
-    <cellStyle name="Table title" xfId="2"/>
+    <cellStyle name="Parent row" xfId="6" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="Table title" xfId="2" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -402,6 +415,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -437,6 +467,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -612,22 +659,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="84.5703125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="84.5" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="C1" s="13">
+        <v>44307</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -635,127 +685,127 @@
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="2">
         <v>2005</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B6" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="B9" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B10" s="2"/>
     </row>
-    <row r="11" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B11" s="10" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B12" s="2" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B13" s="2">
         <v>2010</v>
       </c>
     </row>
-    <row r="14" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="2" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="2" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="9" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="2"/>
     </row>
-    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A20" s="7" t="s">
         <v>25</v>
       </c>
       <c r="B20" s="2"/>
     </row>
-    <row r="21" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A21" s="7" t="s">
         <v>26</v>
       </c>
       <c r="B21" s="2"/>
     </row>
-    <row r="22" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A22" s="7"/>
       <c r="B22" s="2"/>
     </row>
-    <row r="23" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A23" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B23" s="2"/>
     </row>
-    <row r="24" spans="1:2" s="8" customFormat="1" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" s="8" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A24" s="7" t="s">
         <v>20</v>
       </c>
       <c r="B24" s="2"/>
     </row>
-    <row r="25" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="26" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="8">
         <v>1.335</v>
       </c>
     </row>
-    <row r="27" spans="1:2" ht="14.45" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B8" r:id="rId1"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId2"/>
@@ -763,19 +813,19 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.7109375" customWidth="1"/>
-    <col min="3" max="3" width="53.85546875" customWidth="1"/>
-    <col min="4" max="4" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="38.6640625" customWidth="1"/>
+    <col min="3" max="3" width="53.83203125" customWidth="1"/>
+    <col min="4" max="4" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>10</v>
       </c>
@@ -789,7 +839,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -800,7 +850,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -811,7 +861,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -822,7 +872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -834,7 +884,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>13</v>
       </c>
@@ -846,7 +896,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>28</v>
       </c>
@@ -860,7 +910,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -878,7 +928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -888,18 +938,18 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" customWidth="1"/>
-    <col min="2" max="2" width="17.5703125" customWidth="1"/>
+    <col min="1" max="1" width="25.33203125" customWidth="1"/>
+    <col min="2" max="2" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="32" x14ac:dyDescent="0.2">
       <c r="B1" s="12" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>

--- a/InputData/trans/EoFoNVFE/Effect of Feebate on New Veh Fuel Econ.xlsx
+++ b/InputData/trans/EoFoNVFE/Effect of Feebate on New Veh Fuel Econ.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/or/trans/eofonvfe/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/users/nathaniyer/library/containers/com.microsoft.excel/data/state-eps-data-repository/template_state/trans/eofonvfe/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E346769-A6D9-4B4A-A0C2-36DC85B3BB35}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD363C56-440A-2C46-8CC4-59EAF07655C5}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="360" yWindow="460" windowWidth="25880" windowHeight="11320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
